--- a/api/python_vin_co2/transport_co2_data/fuel_emission_factors_worldwide.xlsx
+++ b/api/python_vin_co2/transport_co2_data/fuel_emission_factors_worldwide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KALPITA ROY\Desktop\Arjuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F91E212-00D3-495E-B2E2-357D40EDA6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B17D3-40F8-4CF3-9392-764BCA1A2878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>kg</t>
   </si>
   <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
     <t>co2_kg_per_unit</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>DIESEL</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,14 +422,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
